--- a/downloaded_files/MCNS101_Tutorial-35528.xlsx
+++ b/downloaded_files/MCNS101_Tutorial-35528.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -60,6 +60,24 @@
     <x:t>Afnan Khaled Mohamed Ahmed Ali</x:t>
   </x:si>
   <x:si>
+    <x:t>4250177</x:t>
+  </x:si>
+  <x:si>
+    <x:t>شابى اشرف محمد كامل</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shaby Ashraf Mohamed Kamel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250181</x:t>
+  </x:si>
+  <x:si>
+    <x:t>على عبدالرحمن محمد ابراهيم حمزه</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ali Abdul Rahman Mohamed Ibrahim Hamza</x:t>
+  </x:si>
+  <x:si>
     <x:t>4250182</x:t>
   </x:si>
   <x:si>
@@ -78,6 +96,15 @@
     <x:t>omar mahmoud omar elsayed mohamed humam</x:t>
   </x:si>
   <x:si>
+    <x:t>4250163</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر مصطفى حسني محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Mostafa Hosni</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240249</x:t>
   </x:si>
   <x:si>
@@ -139,6 +166,24 @@
   </x:si>
   <x:si>
     <x:t>Hesham Tarek Ahmed Awad</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250199</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف ابراهيم سعيد عيد حسانين</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yuossef Ibrahem</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250201</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف حسن سيد احمد حسن السيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Hassan Sayed Ahmed Hassan El-Sayed</x:t>
   </x:si>
   <x:si>
     <x:t>4250202</x:t>
@@ -263,7 +308,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E14" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E19" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -563,7 +608,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T14"/>
+  <x:dimension ref="A1:T19"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -573,7 +618,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="27.760625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="43.680625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -750,7 +795,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45917.3102704514</x:v>
+        <x:v>45919.9609886227</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -782,7 +827,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45908.4152319444</x:v>
+        <x:v>45919.9783004977</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -814,7 +859,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.6691799769</x:v>
+        <x:v>45917.3102704514</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -846,7 +891,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6697134259</x:v>
+        <x:v>45908.4152319444</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -878,7 +923,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45917.3417125</x:v>
+        <x:v>45919.9902133912</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -910,7 +955,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45908.4150593403</x:v>
+        <x:v>45907.6691799769</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -942,7 +987,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6650168634</x:v>
+        <x:v>45907.6697134259</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -974,7 +1019,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45909.4157067477</x:v>
+        <x:v>45917.3417125</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1006,7 +1051,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45909.8782289352</x:v>
+        <x:v>45908.4150593403</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1038,7 +1083,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45917.311553206</x:v>
+        <x:v>45907.6650168634</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1055,6 +1100,166 @@
       <x:c r="R14" s="2" t="s"/>
       <x:c r="S14" s="2" t="s"/>
       <x:c r="T14" s="2" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:20">
+      <x:c r="A15" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B15" s="2" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C15" s="2" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D15" s="2" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="E15" s="3">
+        <x:v>45909.4157067477</x:v>
+      </x:c>
+      <x:c r="F15" s="2" t="s"/>
+      <x:c r="G15" s="2" t="s"/>
+      <x:c r="H15" s="2" t="s"/>
+      <x:c r="I15" s="2" t="s"/>
+      <x:c r="J15" s="2" t="s"/>
+      <x:c r="K15" s="2" t="s"/>
+      <x:c r="L15" s="2" t="s"/>
+      <x:c r="M15" s="2" t="s"/>
+      <x:c r="N15" s="2" t="s"/>
+      <x:c r="O15" s="2" t="s"/>
+      <x:c r="P15" s="2" t="s"/>
+      <x:c r="Q15" s="2" t="s"/>
+      <x:c r="R15" s="2" t="s"/>
+      <x:c r="S15" s="2" t="s"/>
+      <x:c r="T15" s="2" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:20">
+      <x:c r="A16" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B16" s="2" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="C16" s="2" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D16" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="E16" s="3">
+        <x:v>45909.8782289352</x:v>
+      </x:c>
+      <x:c r="F16" s="2" t="s"/>
+      <x:c r="G16" s="2" t="s"/>
+      <x:c r="H16" s="2" t="s"/>
+      <x:c r="I16" s="2" t="s"/>
+      <x:c r="J16" s="2" t="s"/>
+      <x:c r="K16" s="2" t="s"/>
+      <x:c r="L16" s="2" t="s"/>
+      <x:c r="M16" s="2" t="s"/>
+      <x:c r="N16" s="2" t="s"/>
+      <x:c r="O16" s="2" t="s"/>
+      <x:c r="P16" s="2" t="s"/>
+      <x:c r="Q16" s="2" t="s"/>
+      <x:c r="R16" s="2" t="s"/>
+      <x:c r="S16" s="2" t="s"/>
+      <x:c r="T16" s="2" t="s"/>
+    </x:row>
+    <x:row r="17" spans="1:20">
+      <x:c r="A17" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B17" s="2" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C17" s="2" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="D17" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E17" s="3">
+        <x:v>45919.9698933218</x:v>
+      </x:c>
+      <x:c r="F17" s="2" t="s"/>
+      <x:c r="G17" s="2" t="s"/>
+      <x:c r="H17" s="2" t="s"/>
+      <x:c r="I17" s="2" t="s"/>
+      <x:c r="J17" s="2" t="s"/>
+      <x:c r="K17" s="2" t="s"/>
+      <x:c r="L17" s="2" t="s"/>
+      <x:c r="M17" s="2" t="s"/>
+      <x:c r="N17" s="2" t="s"/>
+      <x:c r="O17" s="2" t="s"/>
+      <x:c r="P17" s="2" t="s"/>
+      <x:c r="Q17" s="2" t="s"/>
+      <x:c r="R17" s="2" t="s"/>
+      <x:c r="S17" s="2" t="s"/>
+      <x:c r="T17" s="2" t="s"/>
+    </x:row>
+    <x:row r="18" spans="1:20">
+      <x:c r="A18" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B18" s="2" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C18" s="2" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D18" s="2" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="E18" s="3">
+        <x:v>45919.9825459491</x:v>
+      </x:c>
+      <x:c r="F18" s="2" t="s"/>
+      <x:c r="G18" s="2" t="s"/>
+      <x:c r="H18" s="2" t="s"/>
+      <x:c r="I18" s="2" t="s"/>
+      <x:c r="J18" s="2" t="s"/>
+      <x:c r="K18" s="2" t="s"/>
+      <x:c r="L18" s="2" t="s"/>
+      <x:c r="M18" s="2" t="s"/>
+      <x:c r="N18" s="2" t="s"/>
+      <x:c r="O18" s="2" t="s"/>
+      <x:c r="P18" s="2" t="s"/>
+      <x:c r="Q18" s="2" t="s"/>
+      <x:c r="R18" s="2" t="s"/>
+      <x:c r="S18" s="2" t="s"/>
+      <x:c r="T18" s="2" t="s"/>
+    </x:row>
+    <x:row r="19" spans="1:20">
+      <x:c r="A19" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B19" s="2" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="C19" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="D19" s="2" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="E19" s="3">
+        <x:v>45917.311553206</x:v>
+      </x:c>
+      <x:c r="F19" s="2" t="s"/>
+      <x:c r="G19" s="2" t="s"/>
+      <x:c r="H19" s="2" t="s"/>
+      <x:c r="I19" s="2" t="s"/>
+      <x:c r="J19" s="2" t="s"/>
+      <x:c r="K19" s="2" t="s"/>
+      <x:c r="L19" s="2" t="s"/>
+      <x:c r="M19" s="2" t="s"/>
+      <x:c r="N19" s="2" t="s"/>
+      <x:c r="O19" s="2" t="s"/>
+      <x:c r="P19" s="2" t="s"/>
+      <x:c r="Q19" s="2" t="s"/>
+      <x:c r="R19" s="2" t="s"/>
+      <x:c r="S19" s="2" t="s"/>
+      <x:c r="T19" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MCNS101_Tutorial-35528.xlsx
+++ b/downloaded_files/MCNS101_Tutorial-35528.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -175,6 +175,15 @@
   </x:si>
   <x:si>
     <x:t>Yuossef Ibrahem</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف احمد محمد محمد عيسى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yuossef Ahmed</x:t>
   </x:si>
   <x:si>
     <x:t>4250201</x:t>
@@ -308,7 +317,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E19" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -608,7 +617,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T19"/>
+  <x:dimension ref="A1:T20"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1211,7 +1220,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45919.9825459491</x:v>
+        <x:v>45921.9223017014</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1243,7 +1252,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45917.311553206</x:v>
+        <x:v>45919.9825459491</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1260,6 +1269,38 @@
       <x:c r="R19" s="2" t="s"/>
       <x:c r="S19" s="2" t="s"/>
       <x:c r="T19" s="2" t="s"/>
+    </x:row>
+    <x:row r="20" spans="1:20">
+      <x:c r="A20" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B20" s="2" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C20" s="2" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D20" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="E20" s="3">
+        <x:v>45917.311553206</x:v>
+      </x:c>
+      <x:c r="F20" s="2" t="s"/>
+      <x:c r="G20" s="2" t="s"/>
+      <x:c r="H20" s="2" t="s"/>
+      <x:c r="I20" s="2" t="s"/>
+      <x:c r="J20" s="2" t="s"/>
+      <x:c r="K20" s="2" t="s"/>
+      <x:c r="L20" s="2" t="s"/>
+      <x:c r="M20" s="2" t="s"/>
+      <x:c r="N20" s="2" t="s"/>
+      <x:c r="O20" s="2" t="s"/>
+      <x:c r="P20" s="2" t="s"/>
+      <x:c r="Q20" s="2" t="s"/>
+      <x:c r="R20" s="2" t="s"/>
+      <x:c r="S20" s="2" t="s"/>
+      <x:c r="T20" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MCNS101_Tutorial-35528.xlsx
+++ b/downloaded_files/MCNS101_Tutorial-35528.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -51,6 +51,15 @@
     <x:t>Ahmed Khaled Ali Ibrahim</x:t>
   </x:si>
   <x:si>
+    <x:t>1240018</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد محمود محمد محمد خليفة</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmad Mahmoud Mohamed Mohamed Khalifa</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240026</x:t>
   </x:si>
   <x:si>
@@ -111,7 +120,7 @@
     <x:t>كريم سامح صبري محمد عبد الحليم</x:t>
   </x:si>
   <x:si>
-    <x:t>kareem sameh sabry mohamed</x:t>
+    <x:t>Karim Sameh Sabry Mohamed Abdel Halim</x:t>
   </x:si>
   <x:si>
     <x:t>1240256</x:t>
@@ -317,7 +326,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -617,7 +626,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T20"/>
+  <x:dimension ref="A1:T21"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -772,7 +781,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45908.4194866898</x:v>
+        <x:v>45925.3110492245</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -804,7 +813,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45919.9609886227</x:v>
+        <x:v>45908.4194866898</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -836,7 +845,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45919.9783004977</x:v>
+        <x:v>45919.9609886227</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -868,7 +877,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45917.3102704514</x:v>
+        <x:v>45919.9783004977</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -900,7 +909,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45908.4152319444</x:v>
+        <x:v>45917.3102704514</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -932,7 +941,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45919.9902133912</x:v>
+        <x:v>45908.4152319444</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -964,7 +973,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6691799769</x:v>
+        <x:v>45919.9902133912</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -996,7 +1005,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6697134259</x:v>
+        <x:v>45907.6691799769</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1028,7 +1037,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45917.3417125</x:v>
+        <x:v>45907.6697134259</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1060,7 +1069,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45908.4150593403</x:v>
+        <x:v>45917.3417125</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1092,7 +1101,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6650168634</x:v>
+        <x:v>45908.4150593403</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1124,7 +1133,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45909.4157067477</x:v>
+        <x:v>45907.6650168634</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1156,7 +1165,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45909.8782289352</x:v>
+        <x:v>45909.4157067477</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1188,7 +1197,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45919.9698933218</x:v>
+        <x:v>45909.8782289352</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1220,7 +1229,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45921.9223017014</x:v>
+        <x:v>45919.9698933218</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1252,7 +1261,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45919.9825459491</x:v>
+        <x:v>45921.9223017014</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1284,7 +1293,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45917.311553206</x:v>
+        <x:v>45919.9825459491</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1301,6 +1310,38 @@
       <x:c r="R20" s="2" t="s"/>
       <x:c r="S20" s="2" t="s"/>
       <x:c r="T20" s="2" t="s"/>
+    </x:row>
+    <x:row r="21" spans="1:20">
+      <x:c r="A21" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B21" s="2" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="C21" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="D21" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="E21" s="3">
+        <x:v>45917.311553206</x:v>
+      </x:c>
+      <x:c r="F21" s="2" t="s"/>
+      <x:c r="G21" s="2" t="s"/>
+      <x:c r="H21" s="2" t="s"/>
+      <x:c r="I21" s="2" t="s"/>
+      <x:c r="J21" s="2" t="s"/>
+      <x:c r="K21" s="2" t="s"/>
+      <x:c r="L21" s="2" t="s"/>
+      <x:c r="M21" s="2" t="s"/>
+      <x:c r="N21" s="2" t="s"/>
+      <x:c r="O21" s="2" t="s"/>
+      <x:c r="P21" s="2" t="s"/>
+      <x:c r="Q21" s="2" t="s"/>
+      <x:c r="R21" s="2" t="s"/>
+      <x:c r="S21" s="2" t="s"/>
+      <x:c r="T21" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MCNS101_Tutorial-35528.xlsx
+++ b/downloaded_files/MCNS101_Tutorial-35528.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -51,15 +51,6 @@
     <x:t>Ahmed Khaled Ali Ibrahim</x:t>
   </x:si>
   <x:si>
-    <x:t>1240018</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد محمود محمد محمد خليفة</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmad Mahmoud Mohamed Mohamed Khalifa</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240026</x:t>
   </x:si>
   <x:si>
@@ -166,15 +157,6 @@
   </x:si>
   <x:si>
     <x:t>Nada magdy Ali Mohamed Ali Wahba</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230276</x:t>
-  </x:si>
-  <x:si>
-    <x:t>هشام طارق احمد عوض</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hesham Tarek Ahmed Awad</x:t>
   </x:si>
   <x:si>
     <x:t>4250199</x:t>
@@ -326,7 +308,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E19" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -626,7 +608,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T21"/>
+  <x:dimension ref="A1:T19"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -781,7 +763,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45925.3110492245</x:v>
+        <x:v>45927.5064560995</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -813,7 +795,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45908.4194866898</x:v>
+        <x:v>45919.9609886227</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -845,7 +827,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45919.9609886227</x:v>
+        <x:v>45919.9783004977</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -877,7 +859,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45919.9783004977</x:v>
+        <x:v>45917.3102704514</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -909,7 +891,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45917.3102704514</x:v>
+        <x:v>45908.4152319444</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -941,7 +923,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45908.4152319444</x:v>
+        <x:v>45919.9902133912</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -973,7 +955,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45919.9902133912</x:v>
+        <x:v>45907.6691799769</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1005,7 +987,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6691799769</x:v>
+        <x:v>45907.6697134259</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1037,7 +1019,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6697134259</x:v>
+        <x:v>45917.3417125</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1069,7 +1051,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45917.3417125</x:v>
+        <x:v>45908.4150593403</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1101,7 +1083,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45908.4150593403</x:v>
+        <x:v>45907.6650168634</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1133,7 +1115,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6650168634</x:v>
+        <x:v>45909.4157067477</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1165,7 +1147,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45909.4157067477</x:v>
+        <x:v>45919.9698933218</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1197,7 +1179,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45909.8782289352</x:v>
+        <x:v>45921.9223017014</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1229,7 +1211,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45919.9698933218</x:v>
+        <x:v>45919.9825459491</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1261,7 +1243,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45921.9223017014</x:v>
+        <x:v>45917.311553206</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1278,70 +1260,6 @@
       <x:c r="R19" s="2" t="s"/>
       <x:c r="S19" s="2" t="s"/>
       <x:c r="T19" s="2" t="s"/>
-    </x:row>
-    <x:row r="20" spans="1:20">
-      <x:c r="A20" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B20" s="2" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="C20" s="2" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="D20" s="2" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="E20" s="3">
-        <x:v>45919.9825459491</x:v>
-      </x:c>
-      <x:c r="F20" s="2" t="s"/>
-      <x:c r="G20" s="2" t="s"/>
-      <x:c r="H20" s="2" t="s"/>
-      <x:c r="I20" s="2" t="s"/>
-      <x:c r="J20" s="2" t="s"/>
-      <x:c r="K20" s="2" t="s"/>
-      <x:c r="L20" s="2" t="s"/>
-      <x:c r="M20" s="2" t="s"/>
-      <x:c r="N20" s="2" t="s"/>
-      <x:c r="O20" s="2" t="s"/>
-      <x:c r="P20" s="2" t="s"/>
-      <x:c r="Q20" s="2" t="s"/>
-      <x:c r="R20" s="2" t="s"/>
-      <x:c r="S20" s="2" t="s"/>
-      <x:c r="T20" s="2" t="s"/>
-    </x:row>
-    <x:row r="21" spans="1:20">
-      <x:c r="A21" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B21" s="2" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="C21" s="2" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="D21" s="2" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="E21" s="3">
-        <x:v>45917.311553206</x:v>
-      </x:c>
-      <x:c r="F21" s="2" t="s"/>
-      <x:c r="G21" s="2" t="s"/>
-      <x:c r="H21" s="2" t="s"/>
-      <x:c r="I21" s="2" t="s"/>
-      <x:c r="J21" s="2" t="s"/>
-      <x:c r="K21" s="2" t="s"/>
-      <x:c r="L21" s="2" t="s"/>
-      <x:c r="M21" s="2" t="s"/>
-      <x:c r="N21" s="2" t="s"/>
-      <x:c r="O21" s="2" t="s"/>
-      <x:c r="P21" s="2" t="s"/>
-      <x:c r="Q21" s="2" t="s"/>
-      <x:c r="R21" s="2" t="s"/>
-      <x:c r="S21" s="2" t="s"/>
-      <x:c r="T21" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MCNS101_Tutorial-35528.xlsx
+++ b/downloaded_files/MCNS101_Tutorial-35528.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -49,6 +49,15 @@
   </x:si>
   <x:si>
     <x:t>Ahmed Khaled Ali Ibrahim</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240018</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد محمود محمد محمد خليفة</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmad Mahmoud Mohamed Mohamed Khalifa</x:t>
   </x:si>
   <x:si>
     <x:t>1240026</x:t>
@@ -308,7 +317,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E19" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -608,7 +617,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T19"/>
+  <x:dimension ref="A1:T20"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -763,7 +772,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45927.5064560995</x:v>
+        <x:v>45928.7044315972</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -795,7 +804,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45919.9609886227</x:v>
+        <x:v>45927.5064560995</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -827,7 +836,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45919.9783004977</x:v>
+        <x:v>45919.9609886227</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -859,7 +868,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45917.3102704514</x:v>
+        <x:v>45919.9783004977</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -891,7 +900,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45908.4152319444</x:v>
+        <x:v>45917.3102704514</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -923,7 +932,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45919.9902133912</x:v>
+        <x:v>45908.4152319444</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -955,7 +964,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6691799769</x:v>
+        <x:v>45919.9902133912</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -987,7 +996,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6697134259</x:v>
+        <x:v>45907.6691799769</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1019,7 +1028,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45917.3417125</x:v>
+        <x:v>45907.6697134259</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1051,7 +1060,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45908.4150593403</x:v>
+        <x:v>45917.3417125</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1083,7 +1092,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6650168634</x:v>
+        <x:v>45908.4150593403</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1115,7 +1124,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45909.4157067477</x:v>
+        <x:v>45907.6650168634</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1147,7 +1156,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45919.9698933218</x:v>
+        <x:v>45909.4157067477</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1179,7 +1188,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45921.9223017014</x:v>
+        <x:v>45919.9698933218</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1211,7 +1220,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45919.9825459491</x:v>
+        <x:v>45921.9223017014</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1243,7 +1252,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45917.311553206</x:v>
+        <x:v>45919.9825459491</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1260,6 +1269,38 @@
       <x:c r="R19" s="2" t="s"/>
       <x:c r="S19" s="2" t="s"/>
       <x:c r="T19" s="2" t="s"/>
+    </x:row>
+    <x:row r="20" spans="1:20">
+      <x:c r="A20" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B20" s="2" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C20" s="2" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D20" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="E20" s="3">
+        <x:v>45917.311553206</x:v>
+      </x:c>
+      <x:c r="F20" s="2" t="s"/>
+      <x:c r="G20" s="2" t="s"/>
+      <x:c r="H20" s="2" t="s"/>
+      <x:c r="I20" s="2" t="s"/>
+      <x:c r="J20" s="2" t="s"/>
+      <x:c r="K20" s="2" t="s"/>
+      <x:c r="L20" s="2" t="s"/>
+      <x:c r="M20" s="2" t="s"/>
+      <x:c r="N20" s="2" t="s"/>
+      <x:c r="O20" s="2" t="s"/>
+      <x:c r="P20" s="2" t="s"/>
+      <x:c r="Q20" s="2" t="s"/>
+      <x:c r="R20" s="2" t="s"/>
+      <x:c r="S20" s="2" t="s"/>
+      <x:c r="T20" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
